--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JEDMAC\Private\INF-Z-2023-Jedrzej-Maczan-285809\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA31B47-5905-4745-BA27-15360C6900FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7EE8C5-4415-4F69-B814-AE524A97B3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2482004A-F242-4465-A20F-8F2E5FD1AEF9}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
   <si>
     <t>Layers</t>
   </si>
@@ -125,6 +125,36 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>MLPClassifier Accuracy train set</t>
+  </si>
+  <si>
+    <t>MLPClassifier Accuracy test set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mój klasyfikator - zbiór treningowy </t>
+  </si>
+  <si>
+    <t>Mój klasyfikator - zbiór testowy</t>
+  </si>
+  <si>
+    <t>MLPClassifier - zbiór treningowy</t>
+  </si>
+  <si>
+    <t>MLPClassifier - zbiór testowy</t>
+  </si>
+  <si>
+    <t>[13, 8, 1], 1000 itrs, 0.001 LR</t>
+  </si>
+  <si>
+    <t>[13, 1], 100 itrs, 0.001 LR</t>
+  </si>
+  <si>
+    <t>[13, 8, 1], 100 itrs, 0.9999 LR</t>
+  </si>
+  <si>
+    <t>[13, 8, 1], 100 itrs, 0.1 LR</t>
   </si>
 </sst>
 </file>
@@ -190,6 +220,1151 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Porównanie jakości klasyfikatorów dla skrajnych wyników</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[13, 8, 1], 1000 itrs, 0.001 LR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$16:$I$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Mój klasyfikator - zbiór treningowy </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mój klasyfikator - zbiór testowy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MLPClassifier - zbiór treningowy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MLPClassifier - zbiór testowy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D9E-4EE8-932B-1AC2812121F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[13, 1], 100 itrs, 0.001 LR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$16:$I$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Mój klasyfikator - zbiór treningowy </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mój klasyfikator - zbiór testowy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MLPClassifier - zbiór treningowy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MLPClassifier - zbiór testowy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D9E-4EE8-932B-1AC2812121F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[13, 8, 1], 100 itrs, 0.9999 LR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$16:$I$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Mój klasyfikator - zbiór treningowy </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mój klasyfikator - zbiór testowy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MLPClassifier - zbiór treningowy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MLPClassifier - zbiór testowy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4D9E-4EE8-932B-1AC2812121F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[13, 8, 1], 100 itrs, 0.1 LR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$16:$I$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Mój klasyfikator - zbiór treningowy </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mój klasyfikator - zbiór testowy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MLPClassifier - zbiór treningowy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MLPClassifier - zbiór testowy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$20:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4D9E-4EE8-932B-1AC2812121F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="702228512"/>
+        <c:axId val="702227856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="702228512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="702227856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="702227856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="702228512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFC5AE2-FE8A-40CA-A753-1924397B9BFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,7 +1521,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17C5856B-FA5F-4CF4-BEA4-2ACD1D3D4299}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17C5856B-FA5F-4CF4-BEA4-2ACD1D3D4299}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A2:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -741,19 +1916,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BFB26D-3A1C-4CC9-9859-FF322EF93F30}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -772,8 +1949,14 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -793,7 +1976,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -813,7 +1996,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -833,7 +2016,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -852,8 +2035,14 @@
       <c r="F5">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>87</v>
+      </c>
+      <c r="I5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -872,8 +2061,14 @@
       <c r="F6">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>87</v>
+      </c>
+      <c r="I6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -893,7 +2088,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -913,7 +2108,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -933,7 +2128,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -952,8 +2147,14 @@
       <c r="F10">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>56</v>
+      </c>
+      <c r="I10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -972,8 +2173,14 @@
       <c r="F11">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>46</v>
+      </c>
+      <c r="I11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -993,7 +2200,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1013,7 +2220,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1031,12 +2238,155 @@
       </c>
       <c r="F14">
         <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>1000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17">
+        <v>98</v>
+      </c>
+      <c r="G17">
+        <v>72</v>
+      </c>
+      <c r="H17">
+        <v>87</v>
+      </c>
+      <c r="I17">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18">
+        <v>87</v>
+      </c>
+      <c r="G18">
+        <v>79</v>
+      </c>
+      <c r="H18">
+        <v>87</v>
+      </c>
+      <c r="I18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19">
+        <v>54</v>
+      </c>
+      <c r="G19">
+        <v>59</v>
+      </c>
+      <c r="H19">
+        <v>56</v>
+      </c>
+      <c r="I19">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20">
+        <v>54</v>
+      </c>
+      <c r="G20">
+        <v>59</v>
+      </c>
+      <c r="H20">
+        <v>46</v>
+      </c>
+      <c r="I20">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1189,5 +2539,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
 </worksheet>
 </file>